--- a/Data_preparation/datasets/final_data/HUT_8_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/HUT_8_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,45 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -691,22 +652,22 @@
         <v>44742</v>
       </c>
       <c r="D2">
-        <v>3.200000047683716</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="E2">
-        <v>3.930000066757202</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="F2">
-        <v>4.539999961853027</v>
+        <v>11.85000038146973</v>
       </c>
       <c r="G2">
-        <v>3.109999895095825</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="H2">
-        <v>448228270</v>
+        <v>105527928</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>109612000</v>
@@ -735,22 +696,22 @@
         <v>44834</v>
       </c>
       <c r="D3">
-        <v>254.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="E3">
-        <v>227.5399932861328</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="F3">
-        <v>257.5</v>
+        <v>12.39999961853027</v>
       </c>
       <c r="G3">
-        <v>198.5899963378907</v>
+        <v>8.350000381469727</v>
       </c>
       <c r="H3">
-        <v>3325150886</v>
+        <v>105527928</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>-113585000</v>
@@ -824,22 +785,22 @@
         <v>44926</v>
       </c>
       <c r="D4">
-        <v>26.71999931335449</v>
+        <v>4.264999866485596</v>
       </c>
       <c r="E4">
-        <v>28.72999954223633</v>
+        <v>9.649999618530272</v>
       </c>
       <c r="F4">
-        <v>29.72999954223633</v>
+        <v>10.60000038146973</v>
       </c>
       <c r="G4">
-        <v>26.64999961853028</v>
+        <v>4.054999828338623</v>
       </c>
       <c r="H4">
-        <v>178998669</v>
+        <v>105527928</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>22170000</v>
@@ -895,22 +856,22 @@
         <v>45016</v>
       </c>
       <c r="D5">
-        <v>261.1884929516806</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="E5">
-        <v>225.4617156982422</v>
+        <v>8.949999809265137</v>
       </c>
       <c r="F5">
-        <v>262.5264343168398</v>
+        <v>11.19999980926514</v>
       </c>
       <c r="G5">
-        <v>223.9783523558658</v>
+        <v>7.949999809265137</v>
       </c>
       <c r="H5">
-        <v>60498713</v>
+        <v>105527928</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>-79783000</v>
@@ -984,22 +945,22 @@
         <v>45107</v>
       </c>
       <c r="D6">
-        <v>18.42000007629395</v>
+        <v>16.35000038146973</v>
       </c>
       <c r="E6">
-        <v>19.04000091552734</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="F6">
-        <v>19.38999938964844</v>
+        <v>22.75</v>
       </c>
       <c r="G6">
-        <v>17.57999992370605</v>
+        <v>16.25</v>
       </c>
       <c r="H6">
-        <v>260676335</v>
+        <v>105527928</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>142149000</v>
@@ -1070,22 +1031,22 @@
         <v>45199</v>
       </c>
       <c r="D7">
-        <v>62.6169871617784</v>
+        <v>10.5</v>
       </c>
       <c r="E7">
-        <v>64.67326354980469</v>
+        <v>10.85000038146973</v>
       </c>
       <c r="F7">
-        <v>66.63478202323152</v>
+        <v>12.32499980926514</v>
       </c>
       <c r="G7">
-        <v>60.75970456328059</v>
+        <v>8.5</v>
       </c>
       <c r="H7">
-        <v>212968277</v>
+        <v>105527928</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>128673000</v>
@@ -1168,22 +1129,22 @@
         <v>45291</v>
       </c>
       <c r="D8">
-        <v>1152.400024414062</v>
+        <v>15.0600004196167</v>
       </c>
       <c r="E8">
-        <v>1198.829956054688</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="F8">
-        <v>1307.140014648438</v>
+        <v>15.06999969482422</v>
       </c>
       <c r="G8">
-        <v>1113.18994140625</v>
+        <v>6.179999828338623</v>
       </c>
       <c r="H8">
-        <v>24003656</v>
+        <v>105527928</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>1186765940</v>
@@ -1284,22 +1245,22 @@
         <v>45382</v>
       </c>
       <c r="D9">
-        <v>104.6600036621094</v>
+        <v>11.02999973297119</v>
       </c>
       <c r="E9">
-        <v>92.98000335693359</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="F9">
-        <v>105.0100021362305</v>
+        <v>11.6899995803833</v>
       </c>
       <c r="G9">
-        <v>90.66999816894533</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="H9">
-        <v>168459019</v>
+        <v>105527928</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>985179273</v>
@@ -1412,22 +1373,22 @@
         <v>45473</v>
       </c>
       <c r="D10">
-        <v>53.97000122070312</v>
+        <v>15.30000019073486</v>
       </c>
       <c r="E10">
-        <v>52.63999938964844</v>
+        <v>14.64000034332275</v>
       </c>
       <c r="F10">
-        <v>65.87999725341797</v>
+        <v>21.0979995727539</v>
       </c>
       <c r="G10">
-        <v>50.29000091552734</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="H10">
-        <v>42689006</v>
+        <v>105527928</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1354976215</v>
@@ -1525,22 +1486,22 @@
         <v>45565</v>
       </c>
       <c r="D11">
-        <v>36.50313191135645</v>
+        <v>12.27000045776367</v>
       </c>
       <c r="E11">
-        <v>39.63111877441406</v>
+        <v>15.78999996185303</v>
       </c>
       <c r="F11">
-        <v>41.15769383693995</v>
+        <v>18.38500022888184</v>
       </c>
       <c r="G11">
-        <v>34.26814654717644</v>
+        <v>10.70199966430664</v>
       </c>
       <c r="H11">
-        <v>171080665</v>
+        <v>105527928</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>1116628062</v>
@@ -1641,22 +1602,22 @@
         <v>45657</v>
       </c>
       <c r="D12">
-        <v>12.96000003814697</v>
+        <v>21.10000038146973</v>
       </c>
       <c r="E12">
-        <v>14.22000026702881</v>
+        <v>21.69000053405762</v>
       </c>
       <c r="F12">
-        <v>15.34500026702881</v>
+        <v>29.28000068664551</v>
       </c>
       <c r="G12">
-        <v>12.61999988555908</v>
+        <v>18.64500045776367</v>
       </c>
       <c r="H12">
-        <v>453568899</v>
+        <v>105527928</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1917476575</v>
@@ -1769,22 +1730,22 @@
         <v>45747</v>
       </c>
       <c r="D13">
-        <v>187.8600006103516</v>
+        <v>11.86999988555908</v>
       </c>
       <c r="E13">
-        <v>184.4199981689453</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="F13">
-        <v>198.3399963378907</v>
+        <v>13.80000019073486</v>
       </c>
       <c r="G13">
-        <v>161.3800048828125</v>
+        <v>10.03999996185303</v>
       </c>
       <c r="H13">
-        <v>10664912097</v>
+        <v>105527928</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>1206803071</v>
@@ -1885,22 +1846,22 @@
         <v>45838</v>
       </c>
       <c r="D14">
-        <v>105.0804770925983</v>
+        <v>18.07999992370605</v>
       </c>
       <c r="E14">
-        <v>103.1780242919922</v>
+        <v>21.22999954223633</v>
       </c>
       <c r="F14">
-        <v>109.3114367486601</v>
+        <v>23.55999946594238</v>
       </c>
       <c r="G14">
-        <v>101.4440230697358</v>
+        <v>18.03000068664551</v>
       </c>
       <c r="H14">
-        <v>199618386</v>
+        <v>105527928</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>1938493562</v>
